--- a/Data/EC/NIT-9002604682.xlsx
+++ b/Data/EC/NIT-9002604682.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{011210B4-0953-4BEF-9D3D-C17FF8811027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DB85CB-1D2C-4057-80AF-5D646BB64B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DB734603-8AF7-4A6E-A38F-C6E04111A875}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E771189-1230-426A-9B39-88C0F151DF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,175 +65,175 @@
     <t>CC</t>
   </si>
   <si>
+    <t>52250138</t>
+  </si>
+  <si>
+    <t>SUSANA MARTINEZ BRAVO</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
     <t>79521753</t>
   </si>
   <si>
     <t>JORGE CARRERA VALDIVIESO</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>52250138</t>
-  </si>
-  <si>
-    <t>SUSANA MARTINEZ BRAVO</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -647,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A8C1F8-8C0C-989D-9E49-BB87C9177530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2CDD0F-7FA1-9CBF-4279-4335C314F38A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0063F6-0576-48A3-B9BC-F91F2251E1EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13F497E-0F6A-4E17-84C2-ECD29D3A794F}">
   <dimension ref="B2:J127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>24999</v>
       </c>
       <c r="G16" s="18">
         <v>689455</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>689455</v>
@@ -1213,16 +1213,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
         <v>689455</v>
@@ -1245,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>689455</v>
@@ -1268,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>689455</v>
@@ -1282,16 +1282,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>689455</v>
@@ -1311,10 +1311,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>689455</v>
@@ -1328,16 +1328,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>689455</v>
@@ -1357,10 +1357,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>689455</v>
@@ -1374,16 +1374,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>689455</v>
@@ -1403,10 +1403,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>689455</v>
@@ -1420,16 +1420,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>689455</v>
@@ -1443,16 +1443,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>689455</v>
@@ -1472,10 +1472,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>689455</v>
@@ -1495,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>689455</v>
@@ -1512,16 +1512,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>689455</v>
@@ -1541,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>689455</v>
@@ -1558,16 +1558,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>689455</v>
@@ -1581,16 +1581,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>689455</v>
@@ -1610,10 +1610,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>689455</v>
@@ -1633,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>689455</v>
@@ -1650,16 +1650,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>689455</v>
@@ -1679,10 +1679,10 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G38" s="18">
         <v>689455</v>
@@ -1696,16 +1696,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
         <v>689455</v>
@@ -1719,16 +1719,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G40" s="18">
         <v>689455</v>
@@ -1748,10 +1748,10 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
         <v>689455</v>
@@ -1765,16 +1765,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>689455</v>
@@ -1794,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>689455</v>
@@ -1817,10 +1817,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
         <v>689455</v>
@@ -1834,16 +1834,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>689455</v>
@@ -1863,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>689455</v>
@@ -1880,16 +1880,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>689455</v>
@@ -1903,16 +1903,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>689455</v>
@@ -1932,7 +1932,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
@@ -1955,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
@@ -1972,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
@@ -2001,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>27578</v>
@@ -2018,13 +2018,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>27578</v>
@@ -2041,13 +2041,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>27578</v>
@@ -2070,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>27578</v>
@@ -2087,16 +2087,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
         <v>689455</v>
@@ -2116,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>689455</v>
@@ -2133,16 +2133,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>689455</v>
@@ -2162,10 +2162,10 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
         <v>689455</v>
@@ -2185,10 +2185,10 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>689455</v>
@@ -2202,16 +2202,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
         <v>689455</v>
@@ -2225,16 +2225,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>689455</v>
@@ -2254,10 +2254,10 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
         <v>689455</v>
@@ -2271,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G64" s="18">
         <v>689455</v>
@@ -2300,10 +2300,10 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
         <v>689455</v>
@@ -2323,10 +2323,10 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G66" s="18">
         <v>689455</v>
@@ -2340,16 +2340,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
         <v>689455</v>
@@ -2369,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
         <v>689455</v>
@@ -2386,16 +2386,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F69" s="18">
-        <v>31249</v>
+        <v>24999</v>
       </c>
       <c r="G69" s="18">
         <v>689455</v>
@@ -2409,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2432,13 +2432,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2455,13 +2455,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2478,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2501,13 +2501,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2524,13 +2524,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2547,13 +2547,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2570,13 +2570,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2593,13 +2593,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2616,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2639,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2662,13 +2662,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2685,13 +2685,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2708,13 +2708,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2731,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2754,13 +2754,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2777,13 +2777,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2800,13 +2800,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2823,13 +2823,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2846,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2869,13 +2869,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2892,13 +2892,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2915,13 +2915,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -2938,13 +2938,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -2961,13 +2961,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -2984,13 +2984,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3007,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3030,13 +3030,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3053,13 +3053,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3076,13 +3076,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3099,13 +3099,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3122,13 +3122,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3145,16 +3145,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G102" s="18">
         <v>689455</v>
@@ -3168,16 +3168,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G103" s="18">
         <v>689455</v>
@@ -3191,16 +3191,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G104" s="18">
         <v>689455</v>
@@ -3214,16 +3214,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G105" s="18">
         <v>689455</v>
@@ -3237,16 +3237,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
         <v>689455</v>
@@ -3260,16 +3260,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G107" s="18">
         <v>689455</v>
@@ -3283,16 +3283,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G108" s="18">
         <v>689455</v>
@@ -3306,16 +3306,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G109" s="18">
         <v>689455</v>
@@ -3329,16 +3329,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G110" s="18">
         <v>689455</v>
@@ -3352,16 +3352,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G111" s="18">
         <v>689455</v>
@@ -3375,16 +3375,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G112" s="18">
         <v>689455</v>
@@ -3398,16 +3398,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G113" s="18">
         <v>689455</v>
@@ -3421,16 +3421,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G114" s="18">
         <v>689455</v>
@@ -3444,16 +3444,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G115" s="18">
         <v>689455</v>
@@ -3467,16 +3467,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G116" s="18">
         <v>689455</v>
@@ -3490,16 +3490,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G117" s="18">
         <v>689455</v>
@@ -3513,16 +3513,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G118" s="18">
         <v>689455</v>
@@ -3536,16 +3536,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G119" s="18">
         <v>689455</v>
@@ -3559,16 +3559,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F120" s="18">
-        <v>24999</v>
+        <v>27578</v>
       </c>
       <c r="G120" s="18">
         <v>689455</v>
@@ -3582,16 +3582,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F121" s="24">
-        <v>24999</v>
+        <v>27578</v>
       </c>
       <c r="G121" s="24">
         <v>689455</v>

--- a/Data/EC/NIT-9002604682.xlsx
+++ b/Data/EC/NIT-9002604682.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1DB85CB-1D2C-4057-80AF-5D646BB64B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{718C60B7-51C9-4333-82D2-FFEFCF038637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9E771189-1230-426A-9B39-88C0F151DF49}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E54615BF-89D9-4C79-9DDC-E8F6657C2B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,169 +71,169 @@
     <t>SUSANA MARTINEZ BRAVO</t>
   </si>
   <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>79521753</t>
+  </si>
+  <si>
+    <t>JORGE CARRERA VALDIVIESO</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>79521753</t>
-  </si>
-  <si>
-    <t>JORGE CARRERA VALDIVIESO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -332,7 +332,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -345,9 +347,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -547,23 +547,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,10 +591,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2CDD0F-7FA1-9CBF-4279-4335C314F38A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BDEFFD-A989-439F-EAD8-2D61C4179CAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -998,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13F497E-0F6A-4E17-84C2-ECD29D3A794F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B8C003-9806-4B80-99DB-BD6FCA5D7F48}">
   <dimension ref="B2:J127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1176,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24999</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1190,19 +1190,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1219,13 +1219,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1236,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1268,10 +1268,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1282,19 +1282,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1311,13 +1311,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1328,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1357,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1374,19 +1374,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1403,13 +1403,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1420,19 +1420,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1449,13 +1449,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1466,19 +1466,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1495,13 +1495,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1512,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1541,13 +1541,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1558,19 +1558,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1587,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1604,19 +1604,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1633,13 +1633,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1650,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1679,13 +1679,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1696,19 +1696,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1725,13 +1725,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1742,19 +1742,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1771,13 +1771,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1788,19 +1788,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1817,13 +1817,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1834,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1863,13 +1863,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G46" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1880,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1909,13 +1909,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1926,19 +1926,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>27578</v>
       </c>
       <c r="G49" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1955,13 +1955,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>27578</v>
       </c>
       <c r="G50" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1972,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>27578</v>
       </c>
       <c r="G51" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2001,13 +2001,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>27578</v>
       </c>
       <c r="G52" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2018,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>27578</v>
       </c>
       <c r="G53" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2047,13 +2047,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>27578</v>
       </c>
       <c r="G54" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2064,19 +2064,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
         <v>27578</v>
       </c>
       <c r="G55" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2093,13 +2093,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2110,19 +2110,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2139,13 +2139,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2156,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2185,13 +2185,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2202,19 +2202,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2231,13 +2231,13 @@
         <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2248,19 +2248,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2277,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2294,19 +2294,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2323,13 +2323,13 @@
         <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2340,19 +2340,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2369,13 +2369,13 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2386,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
-        <v>24999</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2409,19 +2409,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2432,19 +2432,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2455,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2478,19 +2478,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2501,19 +2501,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2524,19 +2524,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2547,19 +2547,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2570,19 +2570,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2593,19 +2593,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2616,19 +2616,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2639,19 +2639,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2662,19 +2662,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2685,19 +2685,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2708,19 +2708,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2731,19 +2731,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2754,19 +2754,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2777,19 +2777,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2800,19 +2800,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2823,19 +2823,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
       </c>
       <c r="G88" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2846,19 +2846,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2869,19 +2869,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
       </c>
       <c r="G90" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2892,19 +2892,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2915,19 +2915,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
       </c>
       <c r="G92" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2938,19 +2938,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2961,19 +2961,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
       </c>
       <c r="G94" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2984,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3007,19 +3007,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
       </c>
       <c r="G96" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3030,19 +3030,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3053,19 +3053,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
       </c>
       <c r="G98" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3076,19 +3076,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3099,19 +3099,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3122,19 +3122,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3145,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3168,19 +3168,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F103" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3191,19 +3191,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F104" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3214,19 +3214,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F105" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3237,19 +3237,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F106" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3260,19 +3260,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F107" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3283,19 +3283,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F108" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3306,19 +3306,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F109" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G109" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3329,19 +3329,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F110" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3352,19 +3352,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F111" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3375,19 +3375,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F112" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G112" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3398,19 +3398,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F113" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3421,19 +3421,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F114" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3444,19 +3444,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F115" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3467,19 +3467,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F116" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3490,19 +3490,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F117" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G117" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3513,19 +3513,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="F118" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3536,19 +3536,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="F119" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3559,19 +3559,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F120" s="18">
-        <v>27578</v>
+        <v>24999</v>
       </c>
       <c r="G120" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3582,19 +3582,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D121" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="F121" s="24">
-        <v>27578</v>
+        <v>24999</v>
       </c>
       <c r="G121" s="24">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
